--- a/CAPR.xlsx
+++ b/CAPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196B65E-2D4D-409E-AB7B-3E86E737956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1A077-CEBC-4A4B-B8FC-3FCED77139ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="2" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
+    <workbookView xWindow="45690" yWindow="3040" windowWidth="24340" windowHeight="15680" activeTab="2" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Price</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>8/31/2025 PDUFA</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -221,6 +218,18 @@
   </si>
   <si>
     <t>placebo at 12 months: 29.3 (9.2 SE, 32 SD) - -3.36</t>
+  </si>
+  <si>
+    <t>Cash/share</t>
+  </si>
+  <si>
+    <t>Below Cash</t>
+  </si>
+  <si>
+    <t>Current Cash/share</t>
+  </si>
+  <si>
+    <t>FV</t>
   </si>
 </sst>
 </file>
@@ -367,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -390,6 +399,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,6 +615,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -611,7 +623,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1242,16 +1253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>562760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>604791</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>74050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111732</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,8 +1285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8125610" y="2781300"/>
-          <a:ext cx="5528431" cy="3674500"/>
+          <a:off x="1541407" y="8861612"/>
+          <a:ext cx="5555325" cy="3636026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,16 +1297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495958</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>24542</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238614</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,8 +1329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14430375" y="1825626"/>
-          <a:ext cx="6977792" cy="4603750"/>
+          <a:off x="6832820" y="1017322"/>
+          <a:ext cx="7047346" cy="4615793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,15 +1342,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>156845</xdr:colOff>
+      <xdr:colOff>347345</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>141942</xdr:rowOff>
+      <xdr:rowOff>135592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571036</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>151936</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>102019</xdr:rowOff>
+      <xdr:rowOff>95669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1362,8 +1373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7754433" y="6611471"/>
-          <a:ext cx="7152662" cy="5607842"/>
+          <a:off x="7910195" y="6676092"/>
+          <a:ext cx="7119791" cy="5675077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,15 +1703,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48636C82-AED4-4D1E-B69C-D638906C4BC1}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7265625" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -1722,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>10.039999999999999</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1732,18 +1746,15 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="3"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="14">
-        <v>45.707819000000001</v>
+        <v>45.716974999999998</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1754,7 +1765,7 @@
       </c>
       <c r="K4" s="14">
         <f>+K2*K3</f>
-        <v>458.90650275999997</v>
+        <v>288.01694249999997</v>
       </c>
       <c r="L4" s="15"/>
     </row>
@@ -1765,11 +1776,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="14">
-        <f>115.982893+28.794503</f>
-        <v>144.77739600000001</v>
+        <f>23.241199+99.559482</f>
+        <v>122.800681</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1786,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1795,39 +1806,297 @@
       </c>
       <c r="K7" s="14">
         <f>+K4-K5+K6</f>
-        <v>314.12910675999996</v>
-      </c>
+        <v>165.21626149999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="14">
+        <v>353.68069400000002</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E21" si="0">IF((C10-$K$16)&gt;0,(C10-$K$16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" ref="F10:F20" si="1">+E10/D10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J10" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="14">
-        <v>350.01299999999998</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="14">
-        <v>-224.226</v>
+        <v>-250.13692399999999</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3138931217561964</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.94650832852769828</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="J12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3138931217561964</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.88889234429077257</v>
+      </c>
       <c r="J13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.825</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3138931217561964</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.81583184753764182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(2.35,3.1)</f>
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8138931217561964</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76656628321328313</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <f>AVERAGE(2.25,5.8)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3138931217561964</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.56866909857296788</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1">
+        <f>+(K5)/K3</f>
+        <v>2.6861068782438036</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(2.65,6.4)</f>
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3138931217561964</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.61632997165882775</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(K5-13-4)/K3</f>
+        <v>2.3142537536658976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(3.5,8)</f>
+        <v>5.75</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3138931217561964</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>0.44589445595759947</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="1">
+        <f>(K5-13-26)/K3</f>
+        <v>1.8330320630356667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D19" s="1">
+        <f>AVERAGE(5,9)</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8138931217561964</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>0.4019847316794567</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <f>AVERAGE(7,11.4)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>12.313893121756196</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>0.33846664366915191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>45982</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D21" s="1">
+        <f>AVERAGE(9.5,14)</f>
+        <v>11.75</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>14.813893121756196</v>
+      </c>
+      <c r="F21" s="19">
+        <f>+E21/D21-1</f>
+        <v>0.26075686142605936</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2112,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1854,55 +2123,55 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1933,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC8139D-9143-47B3-84C4-3BE05C923E9F}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1946,15 +2215,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,121 +2231,121 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -2098,12 +2367,12 @@
     </row>
     <row r="30" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CAPR.xlsx
+++ b/CAPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1A077-CEBC-4A4B-B8FC-3FCED77139ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0990E9-6BEA-488F-B5B4-3A92F0FAF46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45690" yWindow="3040" windowWidth="24340" windowHeight="15680" activeTab="2" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
+    <workbookView xWindow="3490" yWindow="1800" windowWidth="23470" windowHeight="16810" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Price</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>Phase III "HOPE-3" n=103</t>
   </si>
 </sst>
 </file>
@@ -269,12 +272,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -376,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -401,6 +416,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,7 +476,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>deramiocel!$B$27:$F$27</c:f>
+              <c:f>deramiocel!$B$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1219,13 +1237,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>65484</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>140493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>188516</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>26193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1255,13 +1273,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>241525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>111732</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>66579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1297,16 +1315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495958</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>71391</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51458</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238614</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71391</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>403714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,8 +1347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832820" y="1017322"/>
-          <a:ext cx="7047346" cy="4615793"/>
+          <a:off x="10052708" y="2027191"/>
+          <a:ext cx="7057856" cy="4635500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,13 +1361,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>347345</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>135592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>151936</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1703,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48636C82-AED4-4D1E-B69C-D638906C4BC1}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1714,10 +1732,13 @@
     <col min="1" max="1" width="3.7265625" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1732,14 +1753,15 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1747,356 +1769,522 @@
         <v>9</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="J3" s="14">
         <v>45.716974999999998</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="G4" s="3"/>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="14">
-        <f>+K2*K3</f>
-        <v>288.01694249999997</v>
-      </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="14">
+        <f>+J2*J3</f>
+        <v>81.833385249999992</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="G5" s="3"/>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="14">
-        <f>23.241199+99.559482</f>
-        <v>122.800681</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="J5" s="14">
+        <v>99</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="14">
+      <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="14">
-        <f>+K4-K5+K6</f>
-        <v>165.21626149999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="14">
+        <f>+J4-J5+J6</f>
+        <v>-17.166614750000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="14">
+      <c r="J9" s="14">
         <v>353.68069400000002</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0.05</v>
+      <c r="D10" s="1">
+        <v>0.09</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E21" si="0">IF((C10-$K$16)&gt;0,(C10-$K$16),0)</f>
+        <f>IF((C10-$J$16)&gt;0,(C10-$J$16),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" ref="F10:F20" si="1">+E10/D10-1</f>
+        <f t="shared" ref="F10:F20" si="0">+E10/D10-1</f>
         <v>-1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="14">
+      <c r="J10" s="14">
         <v>-250.13692399999999</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C11" s="1">
         <v>2.5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E10:E21" si="1">IF((C11-$J$16)&gt;0,(C11-$J$16),0)</f>
+        <v>1.19</v>
       </c>
       <c r="F11" s="19">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f>+E11/D11-1</f>
+        <v>0.98333333333333339</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>0.67500000000000004</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.69</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>1.3138931217561964</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
-        <v>0.94650832852769828</v>
+        <v>0.76393442622950825</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>1.2250000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.69</v>
+      </c>
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>2.3138931217561964</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
-        <v>0.88889234429077257</v>
-      </c>
-      <c r="J13" t="s">
+        <v>0.67727272727272703</v>
+      </c>
+      <c r="I13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>1.825</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>3.3138931217561964</v>
-      </c>
-      <c r="F14" s="19">
-        <f t="shared" si="1"/>
-        <v>0.81583184753764182</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.57647058823529385</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C15" s="1">
         <v>7.5</v>
       </c>
       <c r="D15" s="1">
-        <f>AVERAGE(2.35,3.1)</f>
-        <v>2.7250000000000001</v>
+        <v>4.05</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>4.8138931217561964</v>
-      </c>
-      <c r="F15" s="19">
-        <f t="shared" si="1"/>
-        <v>0.76656628321328313</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>0.52839506172839501</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
       </c>
       <c r="D16" s="1">
-        <f>AVERAGE(2.25,5.8)</f>
-        <v>4.0250000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6899999999999995</v>
+      </c>
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>6.3138931217561964</v>
-      </c>
-      <c r="F16" s="19">
-        <f t="shared" si="1"/>
-        <v>0.56866909857296788</v>
-      </c>
-      <c r="J16" t="s">
+        <v>0.56938775510204054</v>
+      </c>
+      <c r="I16" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="1">
-        <f>+(K5)/K3</f>
-        <v>2.6861068782438036</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="K16" s="19">
+        <f>+J16/$J$2-1</f>
+        <v>-0.26815642458100553</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <f>AVERAGE(2.65,6.4)</f>
-        <v>4.5250000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.69</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>7.3138931217561964</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" si="1"/>
-        <v>0.61632997165882775</v>
-      </c>
-      <c r="J17" t="s">
+        <v>0.47288135593220315</v>
+      </c>
+      <c r="I17" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="1">
-        <f>(K5-13-4)/K3</f>
-        <v>2.3142537536658976</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f>(J5-13-4)/J3</f>
+        <v>1.7936444832581333</v>
+      </c>
+      <c r="K17" s="19">
+        <f>+J17/$J$2-1</f>
+        <v>2.0360241665549061E-3</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C18" s="1">
         <v>11</v>
       </c>
-      <c r="D18">
-        <f>AVERAGE(3.5,8)</f>
-        <v>5.75</v>
+      <c r="D18" s="1">
+        <v>6.6</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>9.69</v>
+      </c>
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>8.3138931217561964</v>
-      </c>
-      <c r="F18" s="19">
-        <f t="shared" si="1"/>
-        <v>0.44589445595759947</v>
-      </c>
-      <c r="J18" t="s">
+        <v>0.46818181818181825</v>
+      </c>
+      <c r="I18" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="1">
-        <f>(K5-13-26)/K3</f>
-        <v>1.8330320630356667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <f>(J5-13-26)/J3</f>
+        <v>1.3124227926279024</v>
+      </c>
+      <c r="K18" s="19">
+        <f>+J18/$J$2-1</f>
+        <v>-0.26680290914642324</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C19" s="1">
         <v>12.5</v>
       </c>
       <c r="D19" s="1">
-        <f>AVERAGE(5,9)</f>
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>11.19</v>
+      </c>
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>9.8138931217561964</v>
-      </c>
-      <c r="F19" s="19">
-        <f t="shared" si="1"/>
-        <v>0.4019847316794567</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.47236842105263155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <f>AVERAGE(7,11.4)</f>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>13.69</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>12.313893121756196</v>
-      </c>
-      <c r="F20" s="19">
-        <f t="shared" si="1"/>
-        <v>0.33846664366915191</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.45638297872340416</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
-        <v>45982</v>
+        <v>46010</v>
       </c>
       <c r="C21" s="1">
         <v>17.5</v>
       </c>
       <c r="D21" s="1">
-        <f>AVERAGE(9.5,14)</f>
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>14.813893121756196</v>
+        <f t="shared" si="1"/>
+        <v>16.190000000000001</v>
       </c>
       <c r="F21" s="19">
         <f>+E21/D21-1</f>
-        <v>0.26075686142605936</v>
+        <v>0.34916666666666685</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
+        <f>+G30+1</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" ref="C24:F25" si="2">+B24+1</f>
+        <v>11</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G24" s="22">
+        <f>+B31+1</f>
+        <v>17</v>
+      </c>
+      <c r="H24" s="22">
+        <f>+G24+1</f>
+        <v>18</v>
+      </c>
+      <c r="I24" s="22">
+        <f>+H24+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
+        <f>+I24+1</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="22">
+        <f>+F25+1</f>
+        <v>25</v>
+      </c>
+      <c r="H25" s="22">
+        <f>+G25+1</f>
+        <v>26</v>
+      </c>
+      <c r="I25" s="22">
+        <f>+H25+2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22">
+        <v>2</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4</v>
+      </c>
+      <c r="F26" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21">
+        <f>+C30+1</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="21">
+        <f>+D30+1</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="21">
+        <f>+J30+1</f>
+        <v>8</v>
+      </c>
+      <c r="G30" s="21">
+        <f>+F30+1</f>
+        <v>9</v>
+      </c>
+      <c r="H30" s="21">
+        <f>+E30+1</f>
+        <v>5</v>
+      </c>
+      <c r="I30" s="21">
+        <f>+H30+1</f>
+        <v>6</v>
+      </c>
+      <c r="J30" s="21">
+        <f>+I30+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <f>+C31+1</f>
+        <v>16</v>
+      </c>
+      <c r="C31" s="21">
+        <f>+F24+1</f>
+        <v>15</v>
+      </c>
+      <c r="D31" s="21">
+        <f>+H25+1</f>
+        <v>27</v>
+      </c>
+      <c r="E31" s="21">
+        <f>+D31+1</f>
+        <v>28</v>
+      </c>
+      <c r="F31" s="21">
+        <f>+E31+1</f>
+        <v>29</v>
+      </c>
+      <c r="G31" s="21">
+        <f>+F31+1</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC8139D-9143-47B3-84C4-3BE05C923E9F}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2285,93 +2473,98 @@
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+    <row r="25" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C20" s="12" t="s">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C26" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C25" s="12" t="s">
+    <row r="31" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C31" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>1.2</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <v>1.5</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>1.5</v>
       </c>
-      <c r="F27">
+      <c r="F33">
         <v>2.6</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C30" s="13" t="s">
+    <row r="36" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C36" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>24</v>
       </c>
     </row>
